--- a/data/resenas_tours_pv.xlsx
+++ b/data/resenas_tours_pv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,34 +1162,34 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-12-03T00:45:23</t>
+          <t>2025-12-03T02:12:40</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>fue muy divertido</t>
+          <t>me trataron mal lños meseros, fueron groseros</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>positivo</t>
+          <t>negativo</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.6626</t>
+          <t>0.4295</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-12-03T04:25:28</t>
+          <t>2025-12-04T00:44:56</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>estoy feliz, la vista era hermosa</t>
+          <t>me diverti mucho, la comida estaba rica y las vistas impresionantes</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1199,195 +1199,195 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.3918</t>
+          <t>0.4310</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-12-03T04:25:55</t>
+          <t>2025-12-03T00:45:23</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>fueron groseros conmigo, y el lugar estaba sucio</t>
+          <t>fue muy divertido</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>negativo</t>
+          <t>positivo</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.5643</t>
+          <t>0.6626</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-12-03T04:26:55</t>
+          <t>2025-12-03T04:25:28</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>todo fue regular</t>
+          <t>estoy feliz, la vista era hermosa</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positivo</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.4526</t>
+          <t>0.3918</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-12-03T04:27:48</t>
+          <t>2025-12-03T04:25:55</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>me diverti mucho</t>
+          <t>fueron groseros conmigo, y el lugar estaba sucio</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>positivo</t>
+          <t>negativo</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.4399</t>
+          <t>0.5643</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-12-03T04:28:57</t>
+          <t>2025-12-03T04:26:55</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>regular no hay mucho que destacar</t>
+          <t>todo fue regular</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>negativo</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.4623</t>
+          <t>0.4526</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-12-03T04:29:15</t>
+          <t>2025-12-03T04:27:48</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>estuvo tranquilo, normal</t>
+          <t>me diverti mucho</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positivo</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.5977</t>
+          <t>0.4399</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-12-03T05:09:56</t>
+          <t>2025-12-03T04:28:57</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>la comida estaba deliciosa, me la pase increible</t>
+          <t>regular no hay mucho que destacar</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>positivo</t>
+          <t>negativo</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.5048</t>
+          <t>0.4623</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-12-03T05:10:30</t>
+          <t>2025-12-03T04:29:15</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>fur divertido</t>
+          <t>estuvo tranquilo, normal</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>positivo</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.5619</t>
+          <t>0.5977</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-12-03T23:19:07</t>
+          <t>2025-12-03T05:09:56</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>el viaje fue un poco descepcionante</t>
+          <t>la comida estaba deliciosa, me la pase increible</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positivo</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.4427</t>
+          <t>0.5048</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-12-04T17:24:01</t>
+          <t>2025-12-03T05:10:30</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>el personal fue muy amable y nos deron muchos datos interesantes</t>
+          <t>fur divertido</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1397,73 +1397,315 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.5847</t>
+          <t>0.5619</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-12-04T17:24:21</t>
+          <t>2025-12-03T23:19:07</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>habia muchos insectos en el bote</t>
+          <t>el viaje fue un poco descepcionante</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>negativo</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.5808</t>
+          <t>0.4427</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-12-04T17:24:33</t>
+          <t>2025-12-04T17:24:01</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>estvo bien</t>
+          <t>el personal fue muy amable y nos deron muchos datos interesantes</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positivo</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.5331</t>
+          <t>0.5847</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>2025-12-04T17:24:21</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>habia muchos insectos en el bote</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.5808</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-12-04T17:24:33</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>estvo bien</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.5331</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>2025-12-04T17:25:31</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>muy interesante, vimos ballenas!!!!</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>positivo</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>0.7193</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-12-04T18:06:05</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>me gusto demasiado el tour</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.5088</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-12-04T18:54:06</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>fue divertido el tour</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.9947</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-12-04T18:54:27</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>los meseros me trataron de manera muy grosera</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.9426</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-12-04T18:54:56</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>nada destacable del viaje</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.5727</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-12-04T18:55:09</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>estuvo bien</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.9950</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-12-04T18:55:44</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>los lugares estaban increibles y nos dierom muchos datos curiosos</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.6432</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-12-04T20:25:46</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>fue aburrido y los guias no nos hacian caso</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.9158</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-12-04T20:26:17</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>muy groseros los tripulantes</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.7495</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-12-04T20:30:25</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>las vistas eran muy bonitas, me diverti</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.4441</t>
         </is>
       </c>
     </row>
